--- a/表格模版/德邦美森限时达.xlsx
+++ b/表格模版/德邦美森限时达.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="11660"/>
+    <workbookView windowWidth="24620" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="FBA专线出货资料模板" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,6 @@
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2008,7 +2004,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="132" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="132" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2702,7 +2698,7 @@
   <dimension ref="B1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -2779,6 +2775,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="4"/>
       <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="M4" s="4"/>
@@ -2934,14 +2931,13 @@
   <autoFilter ref="A8:Z11">
     <extLst/>
   </autoFilter>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="C6:E6"/>
